--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2878113.901518266</v>
+        <v>2875616.169594576</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283129</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8872809.818028692</v>
+        <v>8872809.818028696</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>52.21223183888274</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>313.9597675014896</v>
+        <v>412.9288914861689</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386867</v>
+        <v>118.9581905386865</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241020306</v>
+        <v>0.7530123241016327</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.9260532011781</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261759</v>
+        <v>99.96876284261756</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323655</v>
+        <v>45.66663787323643</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199404</v>
+        <v>21.29900499199383</v>
       </c>
       <c r="S3" t="n">
         <v>148.0912566156103</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0452553973763</v>
+        <v>195.0452553973762</v>
       </c>
       <c r="U3" t="n">
         <v>225.8578215810165</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>120.0397670756339</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.4149600371265</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3958800207157</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2609479597986</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>178.0632218454845</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.92889148616886</v>
+        <v>12.92889148616885</v>
       </c>
       <c r="H5" t="n">
-        <v>19.75198496174796</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241020306</v>
+        <v>0.7530123241016327</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011782</v>
+        <v>154.9260532011781</v>
       </c>
       <c r="T5" t="n">
         <v>212.7043385723318</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>12.34499748801392</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261759</v>
+        <v>99.96876284261756</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323655</v>
+        <v>45.66663787323643</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199404</v>
+        <v>21.29900499199383</v>
       </c>
       <c r="S6" t="n">
         <v>148.0912566156103</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0452553973763</v>
+        <v>195.0452553973762</v>
       </c>
       <c r="U6" t="n">
         <v>225.8578215810165</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.4149600371265</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3958800207157</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>227.1081683727728</v>
+        <v>239.6366116597921</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>315.2418973741749</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>300.1962686833615</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>79.28604738509091</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>12.63890193362671</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>112.7304175246786</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>143.4157347120542</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>21.63824106824919</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819367</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986273</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182118</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.0548080622948</v>
       </c>
       <c r="G19" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462233</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016441</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272877</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892436</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238274</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365904</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890366</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520942</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819367</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986273</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703319</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462233</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012137</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016441</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272877</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892436</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238274</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365904</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890366</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520942</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819367</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986273</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182118</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419834344</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012137</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016441</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272877</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892436</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238274</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365904</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890366</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520942</v>
       </c>
     </row>
     <row r="26">
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187704</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819367</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986273</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-5.792442387810923e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465686</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-5.792442387810923e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922683</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856514</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012137</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016441</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272877</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892436</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238274</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957447</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890366</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520942</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>-5.792442387810923e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>104.8913819999782</v>
+        <v>-5.792442387810923e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182118</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>126.3436347319798</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>-5.792442387810923e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922683</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462233</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856496</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>181.026286001644</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272877</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892436</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238274</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365904</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890366</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520942</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1286.783111689585</v>
+        <v>1273.536088462027</v>
       </c>
       <c r="C2" t="n">
-        <v>1286.783111689585</v>
+        <v>1273.536088462027</v>
       </c>
       <c r="D2" t="n">
-        <v>1286.783111689585</v>
+        <v>915.270389855276</v>
       </c>
       <c r="E2" t="n">
-        <v>900.9948590913407</v>
+        <v>915.270389855276</v>
       </c>
       <c r="F2" t="n">
-        <v>490.0089543017331</v>
+        <v>908.3248891060725</v>
       </c>
       <c r="G2" t="n">
-        <v>172.8778760174001</v>
+        <v>491.224998716003</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760174001</v>
+        <v>172.8778760173998</v>
       </c>
       <c r="I2" t="n">
         <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>240.3507333903776</v>
+        <v>72.94508437002509</v>
       </c>
       <c r="K2" t="n">
-        <v>642.3082349403372</v>
+        <v>474.9025859199855</v>
       </c>
       <c r="L2" t="n">
-        <v>1042.407704672376</v>
+        <v>1025.843037648567</v>
       </c>
       <c r="M2" t="n">
-        <v>1227.023259395749</v>
+        <v>1655.476990529845</v>
       </c>
       <c r="N2" t="n">
-        <v>1419.239895182999</v>
+        <v>2280.66708148496</v>
       </c>
       <c r="O2" t="n">
-        <v>1964.401531937495</v>
+        <v>2448.83653878934</v>
       </c>
       <c r="P2" t="n">
-        <v>2392.009993239692</v>
+        <v>2602.201833992996</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.90437972421</v>
@@ -4355,25 +4355,25 @@
         <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.143761215016</v>
+        <v>2478.652798385544</v>
       </c>
       <c r="T2" t="n">
-        <v>2635.143761215016</v>
+        <v>2263.799931140764</v>
       </c>
       <c r="U2" t="n">
-        <v>2381.451089270047</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="V2" t="n">
-        <v>2050.388201926477</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="W2" t="n">
-        <v>2050.388201926477</v>
+        <v>1326.27571658211</v>
       </c>
       <c r="X2" t="n">
-        <v>1676.922443665397</v>
+        <v>1326.27571658211</v>
       </c>
       <c r="Y2" t="n">
-        <v>1286.783111689585</v>
+        <v>1326.27571658211</v>
       </c>
     </row>
     <row r="3">
@@ -4383,61 +4383,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120973</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309703</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697192</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642636</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911487</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640338</v>
+        <v>199.8245529640336</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815747</v>
+        <v>98.84600463815735</v>
       </c>
       <c r="I3" t="n">
         <v>52.7180875944842</v>
       </c>
       <c r="J3" t="n">
-        <v>170.7774263352079</v>
+        <v>170.7774263352082</v>
       </c>
       <c r="K3" t="n">
-        <v>499.1804835727247</v>
+        <v>499.1804835727255</v>
       </c>
       <c r="L3" t="n">
-        <v>1002.163317769836</v>
+        <v>635.0313759194127</v>
       </c>
       <c r="M3" t="n">
-        <v>1238.315708304459</v>
+        <v>1273.967840900132</v>
       </c>
       <c r="N3" t="n">
-        <v>1435.320983085768</v>
+        <v>1926.354174881874</v>
       </c>
       <c r="O3" t="n">
-        <v>1983.246222291442</v>
+        <v>2084.355718003586</v>
       </c>
       <c r="P3" t="n">
-        <v>2406.001465018976</v>
+        <v>2507.110960731121</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.90437972421</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.390233267651</v>
+        <v>2614.39023326765</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.803105373095</v>
+        <v>2464.803105373094</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880796</v>
+        <v>2267.787695880795</v>
       </c>
       <c r="U3" t="n">
         <v>2039.648482162597</v>
@@ -4446,13 +4446,13 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202653</v>
+        <v>1550.259017202652</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.40751699712</v>
+        <v>1342.407516997119</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232166</v>
+        <v>1134.647218232165</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350.747820589213</v>
+        <v>173.970377569872</v>
       </c>
       <c r="C4" t="n">
-        <v>350.747820589213</v>
+        <v>173.970377569872</v>
       </c>
       <c r="D4" t="n">
-        <v>200.6311811768773</v>
+        <v>173.970377569872</v>
       </c>
       <c r="E4" t="n">
-        <v>52.7180875944842</v>
+        <v>173.970377569872</v>
       </c>
       <c r="F4" t="n">
-        <v>52.7180875944842</v>
+        <v>173.970377569872</v>
       </c>
       <c r="G4" t="n">
         <v>52.7180875944842</v>
@@ -4489,49 +4489,49 @@
         <v>52.7180875944842</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919734</v>
+        <v>153.1475318919737</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482327</v>
+        <v>337.1890785482335</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628155</v>
+        <v>541.6242080628167</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543764</v>
+        <v>746.632943554378</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917094</v>
+        <v>919.9753968917113</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327086</v>
+        <v>1044.779129327088</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.75168442186</v>
+        <v>917.029502566179</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.75168442186</v>
+        <v>917.029502566179</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.75168442186</v>
+        <v>691.37709850485</v>
       </c>
       <c r="U4" t="n">
-        <v>758.5992117351946</v>
+        <v>691.37709850485</v>
       </c>
       <c r="V4" t="n">
-        <v>758.5992117351946</v>
+        <v>691.37709850485</v>
       </c>
       <c r="W4" t="n">
-        <v>578.7373714872303</v>
+        <v>401.9599284678894</v>
       </c>
       <c r="X4" t="n">
-        <v>350.747820589213</v>
+        <v>173.970377569872</v>
       </c>
       <c r="Y4" t="n">
-        <v>350.747820589213</v>
+        <v>173.970377569872</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>819.902790201877</v>
+        <v>1180.898854030604</v>
       </c>
       <c r="C5" t="n">
-        <v>450.9402732614653</v>
+        <v>1180.898854030604</v>
       </c>
       <c r="D5" t="n">
-        <v>92.67457465471477</v>
+        <v>1180.898854030604</v>
       </c>
       <c r="E5" t="n">
-        <v>92.67457465471477</v>
+        <v>795.1106014323601</v>
       </c>
       <c r="F5" t="n">
-        <v>85.7290739055113</v>
+        <v>384.1246966427526</v>
       </c>
       <c r="G5" t="n">
-        <v>72.66958755584578</v>
+        <v>371.065210293087</v>
       </c>
       <c r="H5" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448388</v>
       </c>
       <c r="I5" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448388</v>
       </c>
       <c r="J5" t="n">
-        <v>240.3507333903776</v>
+        <v>72.94508437002477</v>
       </c>
       <c r="K5" t="n">
-        <v>321.4042764948841</v>
+        <v>268.6856385292144</v>
       </c>
       <c r="L5" t="n">
-        <v>872.3447282234645</v>
+        <v>819.6260902577958</v>
       </c>
       <c r="M5" t="n">
-        <v>1227.023259395749</v>
+        <v>1004.24164498117</v>
       </c>
       <c r="N5" t="n">
-        <v>1419.239895182999</v>
+        <v>1629.431735936285</v>
       </c>
       <c r="O5" t="n">
-        <v>1964.401531937495</v>
+        <v>2174.593372690782</v>
       </c>
       <c r="P5" t="n">
-        <v>2392.009993239692</v>
+        <v>2602.20183399298</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724194</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.143761215016</v>
+        <v>2635.143761215</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.652798385543</v>
+        <v>2478.652798385528</v>
       </c>
       <c r="T5" t="n">
-        <v>2263.799931140763</v>
+        <v>2263.799931140748</v>
       </c>
       <c r="U5" t="n">
-        <v>2263.799931140763</v>
+        <v>2251.330236708411</v>
       </c>
       <c r="V5" t="n">
-        <v>1932.737043797193</v>
+        <v>1920.26734936484</v>
       </c>
       <c r="W5" t="n">
-        <v>1579.968388527079</v>
+        <v>1567.498694094726</v>
       </c>
       <c r="X5" t="n">
-        <v>1206.502630265999</v>
+        <v>1567.498694094726</v>
       </c>
       <c r="Y5" t="n">
-        <v>1206.502630265999</v>
+        <v>1567.498694094726</v>
       </c>
     </row>
     <row r="6">
@@ -4620,61 +4620,61 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120981</v>
+        <v>966.4318812120977</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309711</v>
+        <v>791.9788519309707</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697199</v>
+        <v>643.0444422697194</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642644</v>
+        <v>483.806987264264</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911494</v>
+        <v>337.272429291149</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640338</v>
+        <v>199.8245529640334</v>
       </c>
       <c r="H6" t="n">
-        <v>98.8460046381575</v>
+        <v>98.84600463815704</v>
       </c>
       <c r="I6" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448388</v>
       </c>
       <c r="J6" t="n">
         <v>170.7774263352079</v>
       </c>
       <c r="K6" t="n">
-        <v>499.1804835727247</v>
+        <v>310.039877897187</v>
       </c>
       <c r="L6" t="n">
-        <v>1002.163317769836</v>
+        <v>813.0227120942988</v>
       </c>
       <c r="M6" t="n">
-        <v>1180.051769638054</v>
+        <v>990.9111639625179</v>
       </c>
       <c r="N6" t="n">
-        <v>1435.320983085768</v>
+        <v>1643.297497944256</v>
       </c>
       <c r="O6" t="n">
-        <v>1983.246222291442</v>
+        <v>2191.222737149931</v>
       </c>
       <c r="P6" t="n">
-        <v>2406.001465018976</v>
+        <v>2613.977979877465</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.90437972421</v>
       </c>
       <c r="R6" t="n">
-        <v>2614.390233267651</v>
+        <v>2614.39023326765</v>
       </c>
       <c r="S6" t="n">
-        <v>2464.803105373095</v>
+        <v>2464.803105373094</v>
       </c>
       <c r="T6" t="n">
-        <v>2267.787695880796</v>
+        <v>2267.787695880795</v>
       </c>
       <c r="U6" t="n">
         <v>2039.648482162597</v>
@@ -4683,7 +4683,7 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W6" t="n">
-        <v>1550.259017202653</v>
+        <v>1550.259017202652</v>
       </c>
       <c r="X6" t="n">
         <v>1342.40751699712</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.5673641047842</v>
+        <v>221.3303641120927</v>
       </c>
       <c r="C7" t="n">
-        <v>200.6311811768773</v>
+        <v>221.3303641120927</v>
       </c>
       <c r="D7" t="n">
-        <v>200.6311811768773</v>
+        <v>221.3303641120927</v>
       </c>
       <c r="E7" t="n">
-        <v>52.7180875944842</v>
+        <v>221.3303641120927</v>
       </c>
       <c r="F7" t="n">
-        <v>52.7180875944842</v>
+        <v>221.3303641120927</v>
       </c>
       <c r="G7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448388</v>
       </c>
       <c r="H7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448388</v>
       </c>
       <c r="I7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448388</v>
       </c>
       <c r="J7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448388</v>
       </c>
       <c r="K7" t="n">
         <v>153.1475318919734</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482327</v>
+        <v>337.1890785482332</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628155</v>
+        <v>541.6242080628163</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543764</v>
+        <v>746.6329435543776</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917094</v>
+        <v>919.9753968917108</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327086</v>
+        <v>1044.779129327088</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.75168442186</v>
+        <v>917.0295025661785</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.75168442186</v>
+        <v>917.0295025661785</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.75168442186</v>
+        <v>691.3770985048495</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.75168442186</v>
+        <v>691.3770985048495</v>
       </c>
       <c r="V7" t="n">
-        <v>818.3494941463317</v>
+        <v>449.31991501011</v>
       </c>
       <c r="W7" t="n">
-        <v>818.3494941463317</v>
+        <v>449.31991501011</v>
       </c>
       <c r="X7" t="n">
-        <v>590.3599432483144</v>
+        <v>221.3303641120927</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.5673641047842</v>
+        <v>221.3303641120927</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1589.767838252667</v>
+        <v>1054.578561141741</v>
       </c>
       <c r="C8" t="n">
-        <v>1220.805321312255</v>
+        <v>1054.578561141741</v>
       </c>
       <c r="D8" t="n">
-        <v>862.5396227055045</v>
+        <v>696.3128625349909</v>
       </c>
       <c r="E8" t="n">
-        <v>476.7513701072602</v>
+        <v>696.3128625349909</v>
       </c>
       <c r="F8" t="n">
-        <v>65.76546531765268</v>
+        <v>689.3673617857875</v>
       </c>
       <c r="G8" t="n">
-        <v>52.7180875944842</v>
+        <v>370.9412028219744</v>
       </c>
       <c r="H8" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944839</v>
       </c>
       <c r="I8" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944839</v>
       </c>
       <c r="J8" t="n">
-        <v>73.9523375878675</v>
+        <v>241.3579866082202</v>
       </c>
       <c r="K8" t="n">
-        <v>156.5154921624599</v>
+        <v>644.8250996282657</v>
       </c>
       <c r="L8" t="n">
-        <v>709.3287504086591</v>
+        <v>906.7808650573958</v>
       </c>
       <c r="M8" t="n">
-        <v>1341.046561391971</v>
+        <v>1538.498676040708</v>
       </c>
       <c r="N8" t="n">
-        <v>1968.354229451817</v>
+        <v>1732.83288893269</v>
       </c>
       <c r="O8" t="n">
-        <v>2490.185934453089</v>
+        <v>2279.994093699767</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.920259702615</v>
+        <v>2390.728418949294</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724195</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724195</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724195</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.90437972421</v>
+        <v>2421.104517991906</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.90437972421</v>
+        <v>2167.412814737057</v>
       </c>
       <c r="V8" t="n">
-        <v>2332.675825498593</v>
+        <v>2167.412814737057</v>
       </c>
       <c r="W8" t="n">
-        <v>1979.907170228478</v>
+        <v>1814.644159466943</v>
       </c>
       <c r="X8" t="n">
-        <v>1979.907170228478</v>
+        <v>1441.178401205863</v>
       </c>
       <c r="Y8" t="n">
-        <v>1589.767838252667</v>
+        <v>1441.178401205863</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>966.1397720210899</v>
+        <v>966.1397720210897</v>
       </c>
       <c r="C9" t="n">
-        <v>791.6867427399629</v>
+        <v>791.6867427399627</v>
       </c>
       <c r="D9" t="n">
-        <v>642.7523330787117</v>
+        <v>642.7523330787114</v>
       </c>
       <c r="E9" t="n">
-        <v>483.5148780732562</v>
+        <v>483.5148780732559</v>
       </c>
       <c r="F9" t="n">
-        <v>336.9803201001412</v>
+        <v>336.9803201001409</v>
       </c>
       <c r="G9" t="n">
-        <v>199.5389224593631</v>
+        <v>199.5389224593628</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416771</v>
+        <v>98.6229446041674</v>
       </c>
       <c r="I9" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944839</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3773394513799</v>
+        <v>52.7180875944839</v>
       </c>
       <c r="K9" t="n">
-        <v>500.8057437571897</v>
+        <v>382.1464919002938</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.167283623308</v>
+        <v>886.5080317664124</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.289170088821</v>
+        <v>1066.005368121017</v>
       </c>
       <c r="N9" t="n">
-        <v>1430.945911741486</v>
+        <v>1638.922426599977</v>
       </c>
       <c r="O9" t="n">
-        <v>1980.381920494209</v>
+        <v>2188.3584353527</v>
       </c>
       <c r="P9" t="n">
-        <v>2404.349688975046</v>
+        <v>2612.326203833537</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.063145035514</v>
@@ -4920,7 +4920,7 @@
         <v>1804.204264739846</v>
       </c>
       <c r="W9" t="n">
-        <v>1549.966908011645</v>
+        <v>1549.966908011644</v>
       </c>
       <c r="X9" t="n">
         <v>1342.115407806112</v>
@@ -4936,46 +4936,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>132.8050041450811</v>
+        <v>221.6542705223908</v>
       </c>
       <c r="C10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944839</v>
       </c>
       <c r="D10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944839</v>
       </c>
       <c r="E10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944839</v>
       </c>
       <c r="F10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944839</v>
       </c>
       <c r="G10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944839</v>
       </c>
       <c r="H10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944839</v>
       </c>
       <c r="I10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944839</v>
       </c>
       <c r="J10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.7180875944839</v>
       </c>
       <c r="K10" t="n">
-        <v>153.766017190094</v>
+        <v>153.7660171900937</v>
       </c>
       <c r="L10" t="n">
-        <v>338.5990120909124</v>
+        <v>338.5990120909121</v>
       </c>
       <c r="M10" t="n">
-        <v>543.8686128101504</v>
+        <v>543.86861281015</v>
       </c>
       <c r="N10" t="n">
-        <v>749.6919776462546</v>
+        <v>749.6919776462544</v>
       </c>
       <c r="O10" t="n">
-        <v>923.7868730348534</v>
+        <v>923.7868730348532</v>
       </c>
       <c r="P10" t="n">
         <v>1049.234449633469</v>
@@ -4984,28 +4984,28 @@
         <v>1052.652769053829</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.652769053829</v>
+        <v>922.1748077732314</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.652769053829</v>
+        <v>714.7345230256367</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.652769053829</v>
+        <v>489.1053263380016</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.652769053829</v>
+        <v>476.3387587282777</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.652769053829</v>
+        <v>221.6542705223908</v>
       </c>
       <c r="W10" t="n">
-        <v>763.2355990168683</v>
+        <v>221.6542705223908</v>
       </c>
       <c r="X10" t="n">
-        <v>535.2460481188509</v>
+        <v>221.6542705223908</v>
       </c>
       <c r="Y10" t="n">
-        <v>314.4534689753208</v>
+        <v>221.6542705223908</v>
       </c>
     </row>
     <row r="11">
@@ -5033,37 +5033,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,19 +5112,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
         <v>1186.520756890282</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1394.184733704552</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,19 +5288,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703114</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>550.637687073287</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,40 +5501,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192549</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075949</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332399</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014789</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
@@ -5580,40 +5580,40 @@
         <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H18" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803928</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516123</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>739.5354516872216</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1336.913939313772</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868377</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044877267</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215598204</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474852</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474852</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057733</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057733</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797731</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279856</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853415</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580314</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580314</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235218</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.50678425816</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602358</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396472</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359512</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614954</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179658</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,40 +5738,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192549</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075775</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332382</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014771</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355927</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
@@ -5817,40 +5817,40 @@
         <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H21" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803928</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516123</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>710.2486053718784</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998428</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998428</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237714</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732781</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400754</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121691</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057733</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057733</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057733</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057733</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797189</v>
@@ -5908,34 +5908,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
         <v>1977.461080510509</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138441</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703146</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192549</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075775</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332382</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014771</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355927</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291067998</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H24" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438234</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998428</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237714</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732781</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400754</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121691</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998339</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6145,34 +6145,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
         <v>1977.461080510509</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138441</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703146</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551859</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611448</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004697</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406453</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168456</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797156</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111694</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075773</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332381</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301477</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355926</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291067998</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694693</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885224</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398578</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492563</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474768</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466558</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612122987</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852873</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591793</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615981</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778464</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967194</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354681</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300126</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568976</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028054</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797156</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797156</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797156</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191911</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349484</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061498</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061498</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.355259300784</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2283.15997273278</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6330,7 +6330,7 @@
         <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T27" t="n">
         <v>2244.643795685161</v>
@@ -6348,7 +6348,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="28">
@@ -6358,55 +6358,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>659.9487421954748</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675685</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>491.012559267569</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851765</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851771</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000576</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000576</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797156</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1290.37933706726</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1062.389786169244</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>841.5972070257139</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179184</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9027098310023</v>
+        <v>762.547769317919</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>612.4311299055838</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>484.811296842978</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429785</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578591</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000577</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782963</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038354</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797762</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257082</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.10824923517</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258112</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.43155760231</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396424</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359464</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614474</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179179</v>
       </c>
     </row>
     <row r="32">
@@ -6695,31 +6695,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,19 +7075,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7172,28 +7172,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1577.52840832642</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,28 +7406,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>265.2965862711155</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>44.78540908204721</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>58.85246329939895</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>459.9808678792245</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>107.9464839862062</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>115.8454657118003</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>171.7807842918299</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>73.41412016860065</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>58.85246329939909</v>
+        <v>459.9808678792206</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>123.8657672604817</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>355.2148279639512</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>378.0407240669647</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.750777300912887e-11</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.739408617140725e-11</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1.750777300912887e-11</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>105.8542358274162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>23.83108638657367</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.73700564187249</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465686</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606359</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922683</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856514</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012137</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.3204386478799</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465686</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229307</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922683</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856514</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844822517</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229307</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922683</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462233</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856514</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462233</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408458</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>62.35543909864963</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.09032791458884</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012112</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>99.28295407562291</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>813257.4193128225</v>
+        <v>813257.4193128224</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>813257.4193128225</v>
+        <v>813257.4193128221</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>812909.2408488584</v>
+        <v>812909.2408488581</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752100.1003983668</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983683</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.100398367</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.100398367</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983668</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983672</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="16">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380336</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380338</v>
-      </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442567</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.9447442553</v>
       </c>
-      <c r="G2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.944744255</v>
-      </c>
       <c r="I2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="K2" t="n">
         <v>665895.944744255</v>
@@ -26344,16 +26344,16 @@
         <v>665895.944744255</v>
       </c>
       <c r="M2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="N2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="O2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222414</v>
+        <v>789845.933122243</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448474159</v>
+        <v>2553.741448472796</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329925</v>
+        <v>775624.2722329935</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-3.448590174991102e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821401</v>
+        <v>172417.1413821392</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.317424332431983e-09</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663868</v>
+        <v>128024.1174663877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408958</v>
+        <v>184436.3405408956</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408958</v>
+        <v>184436.340540896</v>
       </c>
       <c r="D4" t="n">
-        <v>183932.5854660025</v>
+        <v>183932.5854660029</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695001</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695011</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695013</v>
+        <v>6287.480531696295</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695026</v>
+        <v>6287.480531695544</v>
       </c>
       <c r="I4" t="n">
+        <v>6287.480531695556</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6287.480531695976</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6287.480531695244</v>
+      </c>
+      <c r="L4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="K4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6287.48053169506</v>
-      </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695075</v>
+        <v>6287.480531695054</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695059</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538442</v>
+        <v>86566.12012538445</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538442</v>
+        <v>86566.1201253842</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.1255591778</v>
+        <v>86631.12555917757</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26491,10 +26491,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239068</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-383488.9336504882</v>
+        <v>-383488.9336504894</v>
       </c>
       <c r="C6" t="n">
-        <v>406356.9994717536</v>
+        <v>406356.9994717547</v>
       </c>
       <c r="D6" t="n">
-        <v>404242.0076643794</v>
+        <v>404242.0076643808</v>
       </c>
       <c r="E6" t="n">
-        <v>-217138.3378443394</v>
+        <v>-217173.0757697764</v>
       </c>
       <c r="F6" t="n">
-        <v>558485.9343886531</v>
+        <v>558451.1964632169</v>
       </c>
       <c r="G6" t="n">
-        <v>558485.9343886529</v>
+        <v>558451.1964632196</v>
       </c>
       <c r="H6" t="n">
-        <v>558485.9343886529</v>
+        <v>558451.196463217</v>
       </c>
       <c r="I6" t="n">
-        <v>558485.9343886529</v>
+        <v>558451.1964632167</v>
       </c>
       <c r="J6" t="n">
-        <v>386068.7930065126</v>
+        <v>386034.055081077</v>
       </c>
       <c r="K6" t="n">
-        <v>558485.9343886529</v>
+        <v>558451.1964632146</v>
       </c>
       <c r="L6" t="n">
-        <v>558485.9343886529</v>
+        <v>558451.1964632173</v>
       </c>
       <c r="M6" t="n">
-        <v>430461.8169222659</v>
+        <v>430427.0789968295</v>
       </c>
       <c r="N6" t="n">
-        <v>558485.9343886527</v>
+        <v>558451.1964632171</v>
       </c>
       <c r="O6" t="n">
-        <v>558485.9343886526</v>
+        <v>558451.1964632173</v>
       </c>
       <c r="P6" t="n">
-        <v>558485.9343886527</v>
+        <v>558451.1964632174</v>
       </c>
     </row>
   </sheetData>
@@ -26698,19 +26698,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053421</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053421</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26750,16 +26750,16 @@
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="K3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310485</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310487</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099645</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053421</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632724546</v>
+        <v>2.981900632722954</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.240621237613678e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,10 +26981,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-3.964828465541359e-12</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.732193168596</v>
+        <v>513.7321931685997</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310523</v>
+        <v>658.9760949310484</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.732193168596</v>
+        <v>513.7321931685997</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.732193168596</v>
+        <v>513.7321931685997</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>330.5216098245978</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>98.96912398467924</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716171</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011782</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723318</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524327</v>
+        <v>46.88638667679878</v>
       </c>
       <c r="H4" t="n">
         <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842211</v>
+        <v>123.428264884221</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063289</v>
+        <v>18.07600977063269</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371267</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937733</v>
+        <v>205.4595917937732</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207158</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>108.4597764911065</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>295.4116665098692</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386867</v>
+        <v>118.9581905386865</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>238.8107477375053</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524327</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842211</v>
+        <v>123.428264884221</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063289</v>
+        <v>18.07600977063269</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371267</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937733</v>
+        <v>205.4595917937732</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207158</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>25.02947495105516</v>
+        <v>12.50103166403593</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>97.67500657176186</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27904,22 +27904,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>27.55598978677341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>87.96077371353692</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>273.6217527244703</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.843613757285243e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28749,16 +28749,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.740420924301089e-11</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-2.167562805570827e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
     </row>
     <row r="26">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.620719558559358e-11</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>5.792442387810923e-13</v>
       </c>
     </row>
     <row r="32">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966191</v>
+        <v>2.373846028966198</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064415001</v>
+        <v>24.31115064415008</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171918</v>
+        <v>91.51769903171942</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009694</v>
+        <v>201.47721440097</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071084</v>
+        <v>301.9621168071092</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160826</v>
+        <v>374.6107072160835</v>
       </c>
       <c r="M2" t="n">
-        <v>416.82659153371</v>
+        <v>416.8265915337112</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635102</v>
+        <v>423.5712815635114</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129777</v>
+        <v>399.9663501129788</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728747</v>
+        <v>341.3620262728757</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605229</v>
+        <v>256.3486653605236</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170477</v>
+        <v>149.116105617048</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506714</v>
+        <v>54.09401638506728</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179951</v>
+        <v>10.39151099179954</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172953</v>
+        <v>0.1899076823172958</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366204</v>
+        <v>1.270119599366208</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387887</v>
+        <v>12.2666813938789</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817852</v>
+        <v>43.72999497817865</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401202</v>
+        <v>119.9984486401205</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976559</v>
+        <v>205.0964617976564</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623857</v>
+        <v>275.7775033623865</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394105</v>
+        <v>321.8193388394114</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351603</v>
+        <v>330.3369391351612</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492038</v>
+        <v>302.1937627492047</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789728</v>
+        <v>242.5371364789735</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190965</v>
+        <v>162.129652719097</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064909</v>
+        <v>78.85882916064931</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822751</v>
+        <v>23.59191448822757</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445357</v>
+        <v>5.11947329744537</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830293</v>
+        <v>0.08356049995830317</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026024</v>
+        <v>1.064825606026027</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849563</v>
+        <v>9.46726766084959</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303716</v>
+        <v>32.02221004303725</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603988</v>
+        <v>75.28317034604008</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546598</v>
+        <v>123.7133749546602</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177236</v>
+        <v>158.310526917724</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609702</v>
+        <v>166.9162538609707</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203279</v>
+        <v>162.9473584203284</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953875</v>
+        <v>150.5082592953879</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324565</v>
+        <v>128.7858169324568</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550642</v>
+        <v>89.16462415550666</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004284</v>
+        <v>47.87843134004297</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319897</v>
+        <v>18.55700624319902</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565737</v>
+        <v>4.549709407565749</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232864</v>
+        <v>0.05808139669232879</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966191</v>
+        <v>2.373846028966198</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064415001</v>
+        <v>24.31115064415008</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171918</v>
+        <v>91.51769903171942</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009694</v>
+        <v>201.47721440097</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071084</v>
+        <v>301.9621168071092</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160826</v>
+        <v>374.6107072160835</v>
       </c>
       <c r="M5" t="n">
-        <v>416.82659153371</v>
+        <v>416.8265915337112</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635102</v>
+        <v>423.5712815635114</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129777</v>
+        <v>399.9663501129788</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728747</v>
+        <v>341.3620262728757</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605229</v>
+        <v>256.3486653605236</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170477</v>
+        <v>149.116105617048</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506714</v>
+        <v>54.09401638506728</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179951</v>
+        <v>10.39151099179954</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172953</v>
+        <v>0.1899076823172958</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366204</v>
+        <v>1.270119599366208</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387887</v>
+        <v>12.2666813938789</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817852</v>
+        <v>43.72999497817865</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401202</v>
+        <v>119.9984486401205</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976559</v>
+        <v>205.0964617976564</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623857</v>
+        <v>275.7775033623865</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394105</v>
+        <v>321.8193388394114</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351603</v>
+        <v>330.3369391351612</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492038</v>
+        <v>302.1937627492047</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789728</v>
+        <v>242.5371364789735</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190965</v>
+        <v>162.129652719097</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064909</v>
+        <v>78.85882916064931</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822751</v>
+        <v>23.59191448822757</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445357</v>
+        <v>5.11947329744537</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830293</v>
+        <v>0.08356049995830317</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026024</v>
+        <v>1.064825606026027</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849563</v>
+        <v>9.46726766084959</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303716</v>
+        <v>32.02221004303725</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603988</v>
+        <v>75.28317034604008</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546598</v>
+        <v>123.7133749546602</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177236</v>
+        <v>158.310526917724</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609702</v>
+        <v>166.9162538609707</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203279</v>
+        <v>162.9473584203284</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953875</v>
+        <v>150.5082592953879</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324565</v>
+        <v>128.7858169324568</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550642</v>
+        <v>89.16462415550666</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004284</v>
+        <v>47.87843134004297</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319897</v>
+        <v>18.55700624319902</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565737</v>
+        <v>4.549709407565749</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232864</v>
+        <v>0.05808139669232879</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,16 +31844,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>322.8964653704906</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963282</v>
+        <v>300.5543663814997</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437227</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418556</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>270.9716933356985</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437227</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214685</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485282</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418556</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32795,31 +32795,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>732.4825987614977</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437227</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214685</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485282</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418556</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437227</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860437</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485282</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>182.6892564418556</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O36" t="n">
-        <v>461.1007071927452</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,16 +34211,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,28 +34448,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>189.5279250463569</v>
+        <v>20.43130987428373</v>
       </c>
       <c r="K2" t="n">
-        <v>406.0176783332926</v>
+        <v>406.0176783332934</v>
       </c>
       <c r="L2" t="n">
-        <v>404.1408785172109</v>
+        <v>556.5055067965468</v>
       </c>
       <c r="M2" t="n">
-        <v>186.4803583064373</v>
+        <v>635.993891799271</v>
       </c>
       <c r="N2" t="n">
-        <v>194.1582179669193</v>
+        <v>631.5051423789046</v>
       </c>
       <c r="O2" t="n">
-        <v>550.6683199540363</v>
+        <v>169.868138691292</v>
       </c>
       <c r="P2" t="n">
-        <v>431.9277386890878</v>
+        <v>154.9144395996534</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.3579661459781</v>
+        <v>34.04297548607414</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119.2518573138624</v>
+        <v>119.2518573138627</v>
       </c>
       <c r="K3" t="n">
-        <v>331.7202598358755</v>
+        <v>331.720259835876</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859707</v>
+        <v>137.2231235825123</v>
       </c>
       <c r="M3" t="n">
-        <v>238.5377682167912</v>
+        <v>645.390368667393</v>
       </c>
       <c r="N3" t="n">
-        <v>198.995227051827</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="O3" t="n">
-        <v>553.459837581489</v>
+        <v>159.5975183047602</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0254977045797</v>
+        <v>427.0254977045804</v>
       </c>
       <c r="Q3" t="n">
-        <v>232.2251663689241</v>
+        <v>130.0943626192816</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.443883128777</v>
+        <v>101.4438831287773</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780397</v>
+        <v>185.9005521780402</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228108</v>
+        <v>206.5001308228113</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995565</v>
+        <v>207.0795307995569</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094272</v>
+        <v>175.0933872094276</v>
       </c>
       <c r="P4" t="n">
-        <v>126.06437619735</v>
+        <v>126.0643761973503</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903812031</v>
+        <v>3.002580903812273</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>189.5279250463569</v>
+        <v>20.43130987428373</v>
       </c>
       <c r="K5" t="n">
-        <v>81.87226576212782</v>
+        <v>197.7177314739289</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965458</v>
+        <v>556.5055067965468</v>
       </c>
       <c r="M5" t="n">
-        <v>358.2611425982672</v>
+        <v>186.4803583064384</v>
       </c>
       <c r="N5" t="n">
-        <v>194.1582179669193</v>
+        <v>631.5051423789046</v>
       </c>
       <c r="O5" t="n">
-        <v>550.6683199540363</v>
+        <v>550.6683199540374</v>
       </c>
       <c r="P5" t="n">
-        <v>431.9277386890878</v>
+        <v>431.9277386890888</v>
       </c>
       <c r="Q5" t="n">
-        <v>246.3579661459781</v>
+        <v>34.04297548607414</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.2518573138624</v>
+        <v>119.2518573138627</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358755</v>
+        <v>140.6691429918981</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859707</v>
+        <v>508.0634688859715</v>
       </c>
       <c r="M6" t="n">
-        <v>179.6853049173922</v>
+        <v>179.6853049173931</v>
       </c>
       <c r="N6" t="n">
-        <v>257.847690351226</v>
+        <v>658.9760949310485</v>
       </c>
       <c r="O6" t="n">
-        <v>553.459837581489</v>
+        <v>553.4598375814898</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045797</v>
+        <v>427.0254977045804</v>
       </c>
       <c r="Q6" t="n">
-        <v>232.2251663689241</v>
+        <v>22.14787863307546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.443883128777</v>
+        <v>101.4438831287773</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780397</v>
+        <v>185.9005521780402</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228108</v>
+        <v>206.5001308228113</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995565</v>
+        <v>207.0795307995569</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094272</v>
+        <v>175.0933872094276</v>
       </c>
       <c r="P7" t="n">
-        <v>126.06437619735</v>
+        <v>126.0643761973503</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903812031</v>
+        <v>3.002580903812273</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>264.6017832617476</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>527.1027323245163</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,10 +35258,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>578.7040994736967</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>188.9220579561604</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367929</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>161.9999866016255</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992783</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789168</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191312</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010448</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899071</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.261899706102</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243313</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558243</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992783</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071383</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625067</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789168</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295354</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191312</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010448</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899071</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060451</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683968</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394794</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992783</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071383</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625067</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789168</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295354</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191312</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010448</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899071</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060451</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281522</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992783</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717135</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625067</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789168</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295354</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191312</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010448</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899071</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060451</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295394</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096355</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.342014319132</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010457</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.626132989908</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.261899706046</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066255</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998989</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O36" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
